--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC53EBB1-2F89-4A5F-BC8C-5B1F8211CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9884C153-B18B-4A1A-8E19-3E807971EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{44B189FD-C45C-4DA8-9E32-1274AD0E2BE8}"/>
+    <workbookView xWindow="-380" yWindow="2220" windowWidth="14400" windowHeight="7360" xr2:uid="{44B189FD-C45C-4DA8-9E32-1274AD0E2BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="latest inputs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="234">
   <si>
     <t>Premium Adelita</t>
   </si>
@@ -752,7 +752,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,13 +763,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -810,13 +803,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -867,38 +853,45 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{9ED6E1FD-6EF9-4AB6-BD9E-29773ECF3427}"/>
@@ -1237,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D316D-599B-49B3-A7B7-0E34490D782D}">
   <dimension ref="A5:DD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O15" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2651,13 +2644,13 @@
       <c r="A18" s="5">
         <v>16936.810810810806</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -2666,84 +2659,96 @@
       <c r="F18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="10">
         <v>16</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="10">
         <v>16</v>
       </c>
-      <c r="J18" s="11">
-        <v>63.945945945945901</v>
-      </c>
-      <c r="K18" s="11">
-        <v>525.56756756756749</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1042.8108108108106</v>
-      </c>
-      <c r="M18" s="11">
-        <v>1822.27027027027</v>
-      </c>
-      <c r="N18" s="11">
-        <v>2290.3243243243242</v>
-      </c>
-      <c r="O18" s="11">
-        <v>2557.4594594594596</v>
-      </c>
-      <c r="P18" s="11">
-        <v>1790.1081081081079</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>1500</v>
-      </c>
-      <c r="R18" s="11">
-        <v>1500</v>
-      </c>
-      <c r="S18" s="11">
-        <v>1278.5405405405404</v>
-      </c>
-      <c r="T18" s="11">
-        <v>1250.1621621621621</v>
-      </c>
-      <c r="U18" s="12">
-        <v>605.78378378378375</v>
-      </c>
-      <c r="V18" s="11">
-        <v>360.21621621621614</v>
-      </c>
-      <c r="W18" s="11">
-        <v>220.21621621621614</v>
-      </c>
-      <c r="X18" s="11">
-        <v>55.621621621621614</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>73.783783783783775</v>
-      </c>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
+      <c r="J18" s="15">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K18" s="15">
+        <v>599.1</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1188.8</v>
+      </c>
+      <c r="M18" s="15">
+        <v>2077.4</v>
+      </c>
+      <c r="N18" s="15">
+        <v>2611</v>
+      </c>
+      <c r="O18" s="15">
+        <v>2915.5</v>
+      </c>
+      <c r="P18" s="15">
+        <v>2040.7</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>1710</v>
+      </c>
+      <c r="R18" s="15">
+        <v>1710</v>
+      </c>
+      <c r="S18" s="15">
+        <v>1457.5</v>
+      </c>
+      <c r="T18" s="15">
+        <v>1425.2</v>
+      </c>
+      <c r="U18" s="16">
+        <v>690.6</v>
+      </c>
+      <c r="V18" s="15">
+        <v>410.6</v>
+      </c>
+      <c r="W18" s="15">
+        <v>251</v>
+      </c>
+      <c r="X18" s="15">
+        <v>63.4</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>84.1</v>
+      </c>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
     </row>
     <row r="19" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>16936.810810810806</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -2752,84 +2757,96 @@
       <c r="F19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="10">
         <v>16</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="10">
         <v>16</v>
       </c>
-      <c r="J19" s="13">
-        <v>63.945945945945901</v>
-      </c>
-      <c r="K19" s="13">
-        <v>525.56756756756749</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1042.8108108108106</v>
-      </c>
-      <c r="M19" s="13">
-        <v>1822.27027027027</v>
-      </c>
-      <c r="N19" s="13">
-        <v>2290.3243243243242</v>
-      </c>
-      <c r="O19" s="13">
-        <v>2557.4594594594596</v>
-      </c>
-      <c r="P19" s="13">
-        <v>1790.1081081081079</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>1500</v>
-      </c>
-      <c r="R19" s="13">
-        <v>1500</v>
-      </c>
-      <c r="S19" s="13">
-        <v>1278.5405405405404</v>
-      </c>
-      <c r="T19" s="13">
-        <v>1250.1621621621621</v>
-      </c>
-      <c r="U19" s="13">
-        <v>605.78378378378375</v>
-      </c>
-      <c r="V19" s="13">
-        <v>360.21621621621614</v>
-      </c>
-      <c r="W19" s="13">
-        <v>220.21621621621614</v>
-      </c>
-      <c r="X19" s="13">
-        <v>55.621621621621614</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>73.783783783783775</v>
-      </c>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
+      <c r="J19" s="15">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="K19" s="15">
+        <v>551.79999999999995</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1095</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1913.4</v>
+      </c>
+      <c r="N19" s="15">
+        <v>2404.8000000000002</v>
+      </c>
+      <c r="O19" s="15">
+        <v>2685.3</v>
+      </c>
+      <c r="P19" s="15">
+        <v>1879.6</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>1575</v>
+      </c>
+      <c r="R19" s="15">
+        <v>1575</v>
+      </c>
+      <c r="S19" s="15">
+        <v>1342.5</v>
+      </c>
+      <c r="T19" s="15">
+        <v>1312.7</v>
+      </c>
+      <c r="U19" s="15">
+        <v>636.1</v>
+      </c>
+      <c r="V19" s="15">
+        <v>378.2</v>
+      </c>
+      <c r="W19" s="15">
+        <v>231.2</v>
+      </c>
+      <c r="X19" s="15">
+        <v>58.4</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>77.5</v>
+      </c>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
     </row>
     <row r="20" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>16146.048648648648</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -2838,84 +2855,96 @@
       <c r="F20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="10">
         <v>15</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="10">
         <v>16</v>
       </c>
-      <c r="J20" s="13">
-        <v>57.551351351351315</v>
-      </c>
-      <c r="K20" s="13">
-        <v>473.01081081081077</v>
-      </c>
-      <c r="L20" s="13">
-        <v>938.52972972972952</v>
-      </c>
-      <c r="M20" s="13">
-        <v>1640.0432432432431</v>
-      </c>
-      <c r="N20" s="13">
-        <v>2061.2918918918917</v>
-      </c>
-      <c r="O20" s="13">
-        <v>2301.7135135135136</v>
-      </c>
-      <c r="P20" s="13">
-        <v>1611.0972972972972</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>1798.7351351351349</v>
-      </c>
-      <c r="R20" s="13">
-        <v>1804.1837837837836</v>
-      </c>
-      <c r="S20" s="13">
-        <v>1150.6864864864865</v>
-      </c>
-      <c r="T20" s="13">
-        <v>1125.1459459459459</v>
-      </c>
-      <c r="U20" s="13">
-        <v>545.20540540540537</v>
-      </c>
-      <c r="V20" s="13">
-        <v>324.19459459459455</v>
-      </c>
-      <c r="W20" s="13">
-        <v>198.19459459459452</v>
-      </c>
-      <c r="X20" s="13">
-        <v>50.059459459459454</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>66.405405405405403</v>
-      </c>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
+      <c r="J20" s="15">
+        <v>57.6</v>
+      </c>
+      <c r="K20" s="15">
+        <v>473</v>
+      </c>
+      <c r="L20" s="15">
+        <v>938.5</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1640</v>
+      </c>
+      <c r="N20" s="15">
+        <v>2061.3000000000002</v>
+      </c>
+      <c r="O20" s="15">
+        <v>2301.6999999999998</v>
+      </c>
+      <c r="P20" s="15">
+        <v>1611.1</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>1798.7</v>
+      </c>
+      <c r="R20" s="15">
+        <v>1804.2</v>
+      </c>
+      <c r="S20" s="15">
+        <v>1150.7</v>
+      </c>
+      <c r="T20" s="15">
+        <v>1125.0999999999999</v>
+      </c>
+      <c r="U20" s="15">
+        <v>545.20000000000005</v>
+      </c>
+      <c r="V20" s="15">
+        <v>324.2</v>
+      </c>
+      <c r="W20" s="15">
+        <v>198.2</v>
+      </c>
+      <c r="X20" s="15">
+        <v>50.1</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
     </row>
     <row r="21" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>22654.731249999997</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2924,120 +2953,120 @@
       <c r="F21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>59</v>
       </c>
       <c r="H21" s="10">
         <v>17</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="10">
         <v>11</v>
       </c>
-      <c r="J21" s="13">
-        <v>9.2434097911674069</v>
-      </c>
-      <c r="K21" s="13">
-        <v>387.1961656966792</v>
-      </c>
-      <c r="L21" s="13">
-        <v>947.96302636083522</v>
-      </c>
-      <c r="M21" s="13">
-        <v>1245.8062307428961</v>
-      </c>
-      <c r="N21" s="13">
-        <v>1203.3550154056827</v>
-      </c>
-      <c r="O21" s="13">
-        <v>1906.5388565559738</v>
-      </c>
-      <c r="P21" s="13">
-        <v>1697.3639164669632</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>963.02636083533025</v>
-      </c>
-      <c r="R21" s="13">
-        <v>802.12256076686049</v>
-      </c>
-      <c r="S21" s="13">
-        <v>561.45155768572397</v>
-      </c>
-      <c r="T21" s="13">
-        <v>275.93289969188629</v>
-      </c>
-      <c r="U21" s="14">
-        <v>0</v>
-      </c>
-      <c r="V21" s="14">
-        <v>0</v>
-      </c>
-      <c r="W21" s="14">
-        <v>0</v>
-      </c>
-      <c r="X21" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
+      <c r="J21" s="15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K21" s="15">
+        <v>387.2</v>
+      </c>
+      <c r="L21" s="15">
+        <v>948</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1245.8</v>
+      </c>
+      <c r="N21" s="15">
+        <v>1203.4000000000001</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1906.5</v>
+      </c>
+      <c r="P21" s="15">
+        <v>1697.4</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>963</v>
+      </c>
+      <c r="R21" s="15">
+        <v>802.1</v>
+      </c>
+      <c r="S21" s="15">
+        <v>561.5</v>
+      </c>
+      <c r="T21" s="15">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
+        <v>0</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
       <c r="AI21" s="15">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="AJ21" s="15">
-        <v>164.9375</v>
+        <v>165</v>
       </c>
       <c r="AK21" s="15">
-        <v>414.70624999999995</v>
+        <v>415</v>
       </c>
       <c r="AL21" s="15">
-        <v>417.8125</v>
+        <v>418</v>
       </c>
       <c r="AM21" s="15">
-        <v>615.125</v>
+        <v>615</v>
       </c>
       <c r="AN21" s="15">
-        <v>971.42499999999995</v>
+        <v>971</v>
       </c>
       <c r="AO21" s="15">
-        <v>1982.1374999999998</v>
+        <v>1982</v>
       </c>
       <c r="AP21" s="15">
-        <v>2298.7124999999996</v>
+        <v>2299</v>
       </c>
       <c r="AQ21" s="15">
-        <v>2226.6124999999997</v>
+        <v>2227</v>
       </c>
       <c r="AR21" s="15">
-        <v>2009.6999999999998</v>
+        <v>2010</v>
       </c>
       <c r="AS21" s="15">
-        <v>1298.9375</v>
+        <v>1299</v>
       </c>
       <c r="AT21" s="15">
-        <v>228.37499999999997</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>22654.731249999997</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -3046,120 +3075,120 @@
       <c r="F22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="10" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="10">
         <v>17</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="10">
         <v>11</v>
       </c>
-      <c r="J22" s="13">
-        <v>9.2434097911674069</v>
-      </c>
-      <c r="K22" s="13">
-        <v>387.1961656966792</v>
-      </c>
-      <c r="L22" s="13">
-        <v>947.96302636083522</v>
-      </c>
-      <c r="M22" s="13">
-        <v>1245.8062307428961</v>
-      </c>
-      <c r="N22" s="13">
-        <v>1203.3550154056827</v>
-      </c>
-      <c r="O22" s="13">
-        <v>1906.5388565559738</v>
-      </c>
-      <c r="P22" s="13">
-        <v>1697.3639164669632</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>963.02636083533025</v>
-      </c>
-      <c r="R22" s="13">
-        <v>802.12256076686049</v>
-      </c>
-      <c r="S22" s="13">
-        <v>561.45155768572397</v>
-      </c>
-      <c r="T22" s="13">
-        <v>275.93289969188629</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0</v>
-      </c>
-      <c r="V22" s="14">
-        <v>0</v>
-      </c>
-      <c r="W22" s="14">
-        <v>0</v>
-      </c>
-      <c r="X22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
+      <c r="J22" s="15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K22" s="15">
+        <v>387.2</v>
+      </c>
+      <c r="L22" s="15">
+        <v>948</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1245.8</v>
+      </c>
+      <c r="N22" s="15">
+        <v>1203.4000000000001</v>
+      </c>
+      <c r="O22" s="15">
+        <v>1906.5</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1697.4</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>963</v>
+      </c>
+      <c r="R22" s="15">
+        <v>802.1</v>
+      </c>
+      <c r="S22" s="15">
+        <v>561.5</v>
+      </c>
+      <c r="T22" s="15">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
       <c r="AI22" s="15">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="AJ22" s="15">
-        <v>164.9375</v>
+        <v>165</v>
       </c>
       <c r="AK22" s="15">
-        <v>414.70624999999995</v>
+        <v>415</v>
       </c>
       <c r="AL22" s="15">
-        <v>417.8125</v>
+        <v>418</v>
       </c>
       <c r="AM22" s="15">
-        <v>615.125</v>
+        <v>615</v>
       </c>
       <c r="AN22" s="15">
-        <v>971.42499999999995</v>
+        <v>971</v>
       </c>
       <c r="AO22" s="15">
-        <v>1982.1374999999998</v>
+        <v>1982</v>
       </c>
       <c r="AP22" s="15">
-        <v>2298.7124999999996</v>
+        <v>2299</v>
       </c>
       <c r="AQ22" s="15">
-        <v>2226.6124999999997</v>
+        <v>2227</v>
       </c>
       <c r="AR22" s="15">
-        <v>2009.6999999999998</v>
+        <v>2010</v>
       </c>
       <c r="AS22" s="15">
-        <v>1298.9375</v>
+        <v>1299</v>
       </c>
       <c r="AT22" s="15">
-        <v>228.37499999999997</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>14000.000000000002</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>8</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -3168,50 +3197,50 @@
       <c r="F23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="10" t="s">
         <v>54</v>
       </c>
       <c r="H23" s="10">
         <v>18</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="10">
         <v>12</v>
       </c>
       <c r="J23" s="15">
-        <v>29.040521899665002</v>
+        <v>29</v>
       </c>
       <c r="K23" s="15">
-        <v>182.47127926956176</v>
+        <v>182</v>
       </c>
       <c r="L23" s="15">
-        <v>458.79184514487423</v>
+        <v>459</v>
       </c>
       <c r="M23" s="15">
-        <v>462.22830690300128</v>
+        <v>462</v>
       </c>
       <c r="N23" s="15">
-        <v>680.51622984881658</v>
+        <v>681</v>
       </c>
       <c r="O23" s="15">
-        <v>1074.6929137669363</v>
+        <v>1075</v>
       </c>
       <c r="P23" s="15">
-        <v>2192.8498086437039</v>
+        <v>2193</v>
       </c>
       <c r="Q23" s="15">
-        <v>2543.078502753664</v>
+        <v>2543</v>
       </c>
       <c r="R23" s="15">
-        <v>2463.313869269251</v>
+        <v>2463</v>
       </c>
       <c r="S23" s="15">
-        <v>2223.3423566383522</v>
+        <v>2223</v>
       </c>
       <c r="T23" s="15">
-        <v>1437.0218253350899</v>
+        <v>1437</v>
       </c>
       <c r="U23" s="15">
-        <v>252.65254052708551</v>
+        <v>253</v>
       </c>
       <c r="V23" s="15">
         <v>0</v>
@@ -3225,27 +3254,39 @@
       <c r="Y23" s="15">
         <v>0</v>
       </c>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
     </row>
     <row r="24" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>13000</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="10">
         <v>9</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -3254,50 +3295,50 @@
       <c r="F24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="10">
         <v>20</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="10">
         <v>12</v>
       </c>
       <c r="J24" s="15">
-        <v>26.966198906831785</v>
+        <v>27</v>
       </c>
       <c r="K24" s="15">
-        <v>169.43761646459302</v>
+        <v>169</v>
       </c>
       <c r="L24" s="15">
-        <v>426.02099906309741</v>
+        <v>426</v>
       </c>
       <c r="M24" s="15">
-        <v>429.21199926707254</v>
+        <v>429</v>
       </c>
       <c r="N24" s="15">
-        <v>631.90792771675819</v>
+        <v>632</v>
       </c>
       <c r="O24" s="15">
-        <v>997.92913421215508</v>
+        <v>998</v>
       </c>
       <c r="P24" s="15">
-        <v>2036.2176794548675</v>
+        <v>2036</v>
       </c>
       <c r="Q24" s="15">
-        <v>2361.430038271259</v>
+        <v>2361</v>
       </c>
       <c r="R24" s="15">
-        <v>2287.3628786071613</v>
+        <v>2287</v>
       </c>
       <c r="S24" s="15">
-        <v>2064.532188307041</v>
+        <v>2065</v>
       </c>
       <c r="T24" s="15">
-        <v>1334.3774092397261</v>
+        <v>1334</v>
       </c>
       <c r="U24" s="15">
-        <v>234.60593048943653</v>
+        <v>235</v>
       </c>
       <c r="V24" s="15">
         <v>0</v>
@@ -3311,27 +3352,39 @@
       <c r="Y24" s="15">
         <v>0</v>
       </c>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
     </row>
     <row r="25" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>12426.356249999997</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="10">
         <v>10</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -3340,84 +3393,96 @@
       <c r="F25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="10" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="10">
         <v>21</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="10">
         <v>11</v>
       </c>
       <c r="J25" s="15">
-        <v>26.25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="15">
-        <v>164.9375</v>
+        <v>165</v>
       </c>
       <c r="L25" s="15">
-        <v>414.70624999999995</v>
+        <v>415</v>
       </c>
       <c r="M25" s="15">
-        <v>417.8125</v>
+        <v>418</v>
       </c>
       <c r="N25" s="15">
-        <v>615.125</v>
+        <v>615</v>
       </c>
       <c r="O25" s="15">
-        <v>971.42499999999995</v>
+        <v>971</v>
       </c>
       <c r="P25" s="15">
-        <v>1982.1374999999998</v>
+        <v>1982</v>
       </c>
       <c r="Q25" s="15">
-        <v>2298.7124999999996</v>
+        <v>2299</v>
       </c>
       <c r="R25" s="15">
-        <v>2226.6124999999997</v>
+        <v>2227</v>
       </c>
       <c r="S25" s="15">
-        <v>2009.6999999999998</v>
+        <v>2010</v>
       </c>
       <c r="T25" s="15">
-        <v>1298.9375</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14">
-        <v>0</v>
-      </c>
-      <c r="W25" s="14">
-        <v>0</v>
-      </c>
-      <c r="X25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
+        <v>1299</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
     </row>
     <row r="26" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25989.842551724138</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="10">
         <v>11</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -3432,78 +3497,90 @@
       <c r="H26" s="10">
         <v>13</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="10">
         <v>11</v>
       </c>
       <c r="J26" s="15">
-        <v>212.86724137931034</v>
+        <v>192</v>
       </c>
       <c r="K26" s="15">
-        <v>539.56379310344835</v>
+        <v>486</v>
       </c>
       <c r="L26" s="15">
-        <v>1255.3379310344828</v>
+        <v>1130</v>
       </c>
       <c r="M26" s="15">
-        <v>2515.8206896551728</v>
+        <v>2264</v>
       </c>
       <c r="N26" s="15">
-        <v>4167.3103448275861</v>
+        <v>3751</v>
       </c>
       <c r="O26" s="15">
-        <v>5529.4034482758625</v>
+        <v>4976</v>
       </c>
       <c r="P26" s="15">
-        <v>4443.8448275862065</v>
+        <v>3999</v>
       </c>
       <c r="Q26" s="15">
-        <v>4038.0465517241382</v>
+        <v>3634</v>
       </c>
       <c r="R26" s="15">
-        <v>1938.4166896551724</v>
+        <v>1745</v>
       </c>
       <c r="S26" s="15">
-        <v>968.59096551724144</v>
+        <v>872</v>
       </c>
       <c r="T26" s="15">
-        <v>380.64006896551723</v>
-      </c>
-      <c r="U26" s="14">
-        <v>0</v>
-      </c>
-      <c r="V26" s="14">
-        <v>0</v>
-      </c>
-      <c r="W26" s="14">
-        <v>0</v>
-      </c>
-      <c r="X26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
+        <v>343</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0</v>
+      </c>
+      <c r="X26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
     </row>
     <row r="27" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>22025.290298071304</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="10">
         <v>12</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -3518,78 +3595,90 @@
       <c r="H27" s="10">
         <v>12</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="10">
         <v>11</v>
       </c>
       <c r="J27" s="15">
-        <v>180.395967270602</v>
+        <v>155</v>
       </c>
       <c r="K27" s="15">
-        <v>457.25745178258336</v>
+        <v>393</v>
       </c>
       <c r="L27" s="15">
-        <v>1063.8457042665109</v>
+        <v>915</v>
       </c>
       <c r="M27" s="15">
-        <v>2132.0514319111635</v>
+        <v>1834</v>
       </c>
       <c r="N27" s="15">
-        <v>3531.6189362945647</v>
+        <v>3037</v>
       </c>
       <c r="O27" s="15">
-        <v>4685.935125657511</v>
+        <v>4030</v>
       </c>
       <c r="P27" s="15">
-        <v>3765.9701928696668</v>
+        <v>3239</v>
       </c>
       <c r="Q27" s="15">
-        <v>3422.0733489187614</v>
+        <v>2943</v>
       </c>
       <c r="R27" s="15">
-        <v>1642.7260081823495</v>
+        <v>1413</v>
       </c>
       <c r="S27" s="15">
-        <v>820.83980128579788</v>
+        <v>706</v>
       </c>
       <c r="T27" s="15">
-        <v>322.57632963179429</v>
-      </c>
-      <c r="U27" s="14">
-        <v>0</v>
-      </c>
-      <c r="V27" s="14">
-        <v>0</v>
-      </c>
-      <c r="W27" s="14">
-        <v>0</v>
-      </c>
-      <c r="X27" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
     </row>
     <row r="28" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>22025.290298071304</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="10">
         <v>13</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -3604,238 +3693,250 @@
       <c r="H28" s="10">
         <v>12</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="10">
         <v>11</v>
       </c>
       <c r="J28" s="15">
-        <v>180.395967270602</v>
+        <v>155</v>
       </c>
       <c r="K28" s="15">
-        <v>457.25745178258336</v>
+        <v>393</v>
       </c>
       <c r="L28" s="15">
-        <v>1063.8457042665109</v>
+        <v>915</v>
       </c>
       <c r="M28" s="15">
-        <v>2132.0514319111635</v>
+        <v>1834</v>
       </c>
       <c r="N28" s="15">
-        <v>3531.6189362945647</v>
+        <v>3037</v>
       </c>
       <c r="O28" s="15">
-        <v>4685.935125657511</v>
+        <v>4030</v>
       </c>
       <c r="P28" s="15">
-        <v>3765.9701928696668</v>
+        <v>3239</v>
       </c>
       <c r="Q28" s="15">
-        <v>3422.0733489187614</v>
+        <v>2943</v>
       </c>
       <c r="R28" s="15">
-        <v>1642.7260081823495</v>
+        <v>1413</v>
       </c>
       <c r="S28" s="15">
-        <v>820.83980128579788</v>
+        <v>706</v>
       </c>
       <c r="T28" s="15">
-        <v>322.57632963179429</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0</v>
-      </c>
-      <c r="V28" s="14">
-        <v>0</v>
-      </c>
-      <c r="W28" s="14">
-        <v>0</v>
-      </c>
-      <c r="X28" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10">
+        <v>0</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0</v>
+      </c>
+      <c r="X28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
     </row>
     <row r="29" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>0</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="17">
         <v>14</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>12</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="17">
         <v>11</v>
       </c>
-      <c r="J29" s="19">
-        <v>0</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0</v>
-      </c>
-      <c r="L29" s="19">
-        <v>0</v>
-      </c>
-      <c r="M29" s="19">
-        <v>0</v>
-      </c>
-      <c r="N29" s="19">
-        <v>0</v>
-      </c>
-      <c r="O29" s="19">
-        <v>0</v>
-      </c>
-      <c r="P29" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>0</v>
-      </c>
-      <c r="R29" s="19">
-        <v>0</v>
-      </c>
-      <c r="S29" s="19">
-        <v>0</v>
-      </c>
-      <c r="T29" s="19">
-        <v>0</v>
-      </c>
-      <c r="U29" s="19">
-        <v>0</v>
-      </c>
-      <c r="V29" s="19">
-        <v>0</v>
-      </c>
-      <c r="W29" s="19">
-        <v>0</v>
-      </c>
-      <c r="X29" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="20"/>
-      <c r="AY29" s="20"/>
-      <c r="AZ29" s="20"/>
-      <c r="BA29" s="20"/>
-      <c r="BB29" s="20"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="20"/>
-      <c r="BE29" s="20"/>
-      <c r="BF29" s="20"/>
-      <c r="BG29" s="20"/>
-      <c r="BH29" s="20"/>
-      <c r="BI29" s="20"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="20"/>
-      <c r="BL29" s="20"/>
-      <c r="BM29" s="20"/>
-      <c r="BN29" s="20"/>
-      <c r="BO29" s="20"/>
-      <c r="BP29" s="20"/>
-      <c r="BQ29" s="20"/>
-      <c r="BR29" s="20"/>
-      <c r="BS29" s="20"/>
-      <c r="BT29" s="20"/>
-      <c r="BU29" s="20"/>
-      <c r="BV29" s="20"/>
-      <c r="BW29" s="20"/>
-      <c r="BX29" s="20"/>
-      <c r="BY29" s="20"/>
-      <c r="BZ29" s="20"/>
-      <c r="CA29" s="20"/>
-      <c r="CB29" s="20"/>
-      <c r="CC29" s="20"/>
-      <c r="CD29" s="20"/>
-      <c r="CE29" s="20"/>
-      <c r="CF29" s="20"/>
-      <c r="CG29" s="20"/>
-      <c r="CH29" s="20"/>
-      <c r="CI29" s="20"/>
-      <c r="CJ29" s="20"/>
-      <c r="CK29" s="20"/>
-      <c r="CL29" s="20"/>
-      <c r="CM29" s="20"/>
-      <c r="CN29" s="20"/>
-      <c r="CO29" s="20"/>
-      <c r="CP29" s="20"/>
-      <c r="CQ29" s="20"/>
-      <c r="CR29" s="20"/>
-      <c r="CS29" s="20"/>
-      <c r="CT29" s="20"/>
-      <c r="CU29" s="20"/>
-      <c r="CV29" s="20"/>
-      <c r="CW29" s="20"/>
-      <c r="CX29" s="20"/>
-      <c r="CY29" s="20"/>
-      <c r="CZ29" s="20"/>
-      <c r="DA29" s="20"/>
-      <c r="DB29" s="20"/>
-      <c r="DC29" s="20"/>
-      <c r="DD29" s="20"/>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>0</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0</v>
+      </c>
+      <c r="R29" s="17">
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
+        <v>0</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="12"/>
+      <c r="BR29" s="12"/>
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12"/>
+      <c r="BU29" s="12"/>
+      <c r="BV29" s="12"/>
+      <c r="BW29" s="12"/>
+      <c r="BX29" s="12"/>
+      <c r="BY29" s="12"/>
+      <c r="BZ29" s="12"/>
+      <c r="CA29" s="12"/>
+      <c r="CB29" s="12"/>
+      <c r="CC29" s="12"/>
+      <c r="CD29" s="12"/>
+      <c r="CE29" s="12"/>
+      <c r="CF29" s="12"/>
+      <c r="CG29" s="12"/>
+      <c r="CH29" s="12"/>
+      <c r="CI29" s="12"/>
+      <c r="CJ29" s="12"/>
+      <c r="CK29" s="12"/>
+      <c r="CL29" s="12"/>
+      <c r="CM29" s="12"/>
+      <c r="CN29" s="12"/>
+      <c r="CO29" s="12"/>
+      <c r="CP29" s="12"/>
+      <c r="CQ29" s="12"/>
+      <c r="CR29" s="12"/>
+      <c r="CS29" s="12"/>
+      <c r="CT29" s="12"/>
+      <c r="CU29" s="12"/>
+      <c r="CV29" s="12"/>
+      <c r="CW29" s="12"/>
+      <c r="CX29" s="12"/>
+      <c r="CY29" s="12"/>
+      <c r="CZ29" s="12"/>
+      <c r="DA29" s="12"/>
+      <c r="DB29" s="12"/>
+      <c r="DC29" s="12"/>
+      <c r="DD29" s="12"/>
     </row>
     <row r="30" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>20324.17297297297</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="10">
         <v>15</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -3844,84 +3945,120 @@
       <c r="F30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="10" t="s">
         <v>59</v>
       </c>
       <c r="H30" s="10">
         <v>16</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="10">
         <v>16</v>
       </c>
-      <c r="J30" s="11">
-        <v>76.735135135135081</v>
-      </c>
-      <c r="K30" s="11">
-        <v>630.68108108108095</v>
-      </c>
-      <c r="L30" s="11">
-        <v>1251.3729729729728</v>
-      </c>
-      <c r="M30" s="11">
-        <v>2186.7243243243238</v>
-      </c>
-      <c r="N30" s="11">
-        <v>2748.389189189189</v>
-      </c>
-      <c r="O30" s="11">
-        <v>3068.9513513513516</v>
-      </c>
-      <c r="P30" s="11">
-        <v>2148.1297297297292</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>1800</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1800</v>
-      </c>
-      <c r="S30" s="11">
-        <v>1534.2486486486484</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1500.1945945945945</v>
-      </c>
-      <c r="U30" s="11">
-        <v>726.9405405405405</v>
-      </c>
-      <c r="V30" s="11">
-        <v>432.25945945945938</v>
-      </c>
-      <c r="W30" s="11">
-        <v>264.25945945945938</v>
-      </c>
-      <c r="X30" s="11">
-        <v>66.745945945945934</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>88.540540540540533</v>
-      </c>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
+      <c r="J30" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="K30" s="15">
+        <v>464.6</v>
+      </c>
+      <c r="L30" s="15">
+        <v>1137.5999999999999</v>
+      </c>
+      <c r="M30" s="15">
+        <v>1495</v>
+      </c>
+      <c r="N30" s="15">
+        <v>1444</v>
+      </c>
+      <c r="O30" s="15">
+        <v>2287.8000000000002</v>
+      </c>
+      <c r="P30" s="15">
+        <v>2036.8</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>1155.5999999999999</v>
+      </c>
+      <c r="R30" s="15">
+        <v>962.5</v>
+      </c>
+      <c r="S30" s="15">
+        <v>673.7</v>
+      </c>
+      <c r="T30" s="15">
+        <v>331.1</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="AJ30" s="15">
+        <v>197.9</v>
+      </c>
+      <c r="AK30" s="15">
+        <v>497.6</v>
+      </c>
+      <c r="AL30" s="15">
+        <v>501.4</v>
+      </c>
+      <c r="AM30" s="15">
+        <v>738.2</v>
+      </c>
+      <c r="AN30" s="15">
+        <v>1165.7</v>
+      </c>
+      <c r="AO30" s="15">
+        <v>2378.6</v>
+      </c>
+      <c r="AP30" s="15">
+        <v>2758.5</v>
+      </c>
+      <c r="AQ30" s="15">
+        <v>2671.9</v>
+      </c>
+      <c r="AR30" s="15">
+        <v>2411.6</v>
+      </c>
+      <c r="AS30" s="15">
+        <v>1558.7</v>
+      </c>
+      <c r="AT30" s="15">
+        <v>274.10000000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>18774.807068770704</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="10">
         <v>18</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -3936,78 +4073,90 @@
       <c r="H31" s="10">
         <v>12</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="10">
         <v>14</v>
       </c>
       <c r="J31" s="15">
-        <v>151.53261250730566</v>
+        <v>152</v>
       </c>
       <c r="K31" s="15">
-        <v>384.09625949737</v>
+        <v>384</v>
       </c>
       <c r="L31" s="15">
-        <v>893.63039158386903</v>
+        <v>894</v>
       </c>
       <c r="M31" s="15">
-        <v>1790.9232028053773</v>
+        <v>1791</v>
       </c>
       <c r="N31" s="15">
-        <v>2966.5599064874341</v>
+        <v>2967</v>
       </c>
       <c r="O31" s="15">
-        <v>3936.1855055523092</v>
+        <v>3936</v>
       </c>
       <c r="P31" s="15">
-        <v>3163.4149620105195</v>
+        <v>3163</v>
       </c>
       <c r="Q31" s="15">
-        <v>2874.5416130917597</v>
+        <v>2875</v>
       </c>
       <c r="R31" s="15">
-        <v>1379.8898468731734</v>
+        <v>1380</v>
       </c>
       <c r="S31" s="15">
-        <v>689.50543308007013</v>
+        <v>690</v>
       </c>
       <c r="T31" s="15">
-        <v>270.96411689070715</v>
+        <v>271</v>
       </c>
       <c r="U31" s="15">
-        <v>128.73563218390802</v>
+        <v>129</v>
       </c>
       <c r="V31" s="15">
-        <v>64.367816091954012</v>
+        <v>64</v>
       </c>
       <c r="W31" s="15">
-        <v>80.459770114942515</v>
-      </c>
-      <c r="X31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="X31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
     </row>
     <row r="32" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>15691.26642704072</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="10">
         <v>19</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="10" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -4022,143 +4171,106 @@
       <c r="H32" s="10">
         <v>12</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="10">
         <v>14</v>
       </c>
       <c r="J32" s="15">
-        <v>126.27717708942139</v>
+        <v>126</v>
       </c>
       <c r="K32" s="15">
-        <v>320.08021624780832</v>
+        <v>320</v>
       </c>
       <c r="L32" s="15">
-        <v>744.69199298655758</v>
+        <v>745</v>
       </c>
       <c r="M32" s="15">
-        <v>1492.4360023378144</v>
+        <v>1492</v>
       </c>
       <c r="N32" s="15">
-        <v>2472.1332554061951</v>
+        <v>2472</v>
       </c>
       <c r="O32" s="15">
-        <v>3280.1545879602577</v>
+        <v>3280</v>
       </c>
       <c r="P32" s="15">
-        <v>2636.1791350087665</v>
+        <v>2636</v>
       </c>
       <c r="Q32" s="15">
-        <v>2395.451344243133</v>
+        <v>2395</v>
       </c>
       <c r="R32" s="15">
-        <v>1149.9082057276446</v>
+        <v>1150</v>
       </c>
       <c r="S32" s="15">
-        <v>574.58786090005844</v>
+        <v>575</v>
       </c>
       <c r="T32" s="15">
-        <v>225.80343074225598</v>
+        <v>226</v>
       </c>
       <c r="U32" s="15">
-        <v>128.73563218390802</v>
+        <v>129</v>
       </c>
       <c r="V32" s="15">
-        <v>64.367816091954012</v>
+        <v>64</v>
       </c>
       <c r="W32" s="15">
-        <v>80.459770114942515</v>
-      </c>
-      <c r="X32" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="X32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>27185.677499999994</v>
       </c>
-      <c r="B33" s="8">
-        <v>20</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="10">
-        <v>16</v>
-      </c>
-      <c r="I33" s="8">
-        <v>16</v>
-      </c>
-      <c r="J33" s="11">
-        <v>11.092091749400888</v>
-      </c>
-      <c r="K33" s="11">
-        <v>464.63539883601504</v>
-      </c>
-      <c r="L33" s="11">
-        <v>1137.5556316330021</v>
-      </c>
-      <c r="M33" s="11">
-        <v>1494.9674768914754</v>
-      </c>
-      <c r="N33" s="11">
-        <v>1444.0260184868191</v>
-      </c>
-      <c r="O33" s="11">
-        <v>2287.8466278671685</v>
-      </c>
-      <c r="P33" s="11">
-        <v>2036.8366997603557</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>1155.6316330023963</v>
-      </c>
-      <c r="R33" s="11">
-        <v>962.54707292023249</v>
-      </c>
-      <c r="S33" s="11">
-        <v>673.74186922286879</v>
-      </c>
-      <c r="T33" s="11">
-        <v>331.11947963026353</v>
-      </c>
-      <c r="U33" s="11">
-        <v>0</v>
-      </c>
-      <c r="V33" s="11">
-        <v>0</v>
-      </c>
-      <c r="W33" s="11">
-        <v>0</v>
-      </c>
-      <c r="X33" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="11">
-        <v>0</v>
-      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
@@ -4168,45 +4280,21 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="11">
-        <v>31.5</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>197.92499999999998</v>
-      </c>
-      <c r="AK33" s="11">
-        <v>497.64749999999992</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>501.375</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>738.15</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>1165.7099999999998</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>2378.5649999999996</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>2758.4549999999995</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>2671.9349999999995</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>2411.64</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>1558.7249999999999</v>
-      </c>
-      <c r="AT33" s="11">
-        <v>274.04999999999995</v>
-      </c>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4229,7 +4317,7 @@
       <c r="G38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -4237,13 +4325,13 @@
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B39" s="8">
+      <c r="B39" s="10">
         <v>1</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -4252,24 +4340,24 @@
       <c r="F39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="19">
         <v>7.33</v>
       </c>
-      <c r="H39" s="24">
-        <v>632256</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="20">
+        <v>749023.37</v>
+      </c>
+      <c r="I39" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B40" s="8">
+      <c r="B40" s="10">
         <v>2</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -4278,24 +4366,24 @@
       <c r="F40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="19">
         <v>7.33</v>
       </c>
-      <c r="H40" s="24">
-        <v>632256</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="20">
+        <v>749023.37</v>
+      </c>
+      <c r="I40" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B41" s="8">
+      <c r="B41" s="10">
         <v>3</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -4304,24 +4392,24 @@
       <c r="F41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="19">
         <v>7.33</v>
       </c>
-      <c r="H41" s="24">
-        <v>632256</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="20">
+        <v>749023.37</v>
+      </c>
+      <c r="I41" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B42" s="8">
+      <c r="B42" s="10">
         <v>4</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -4330,24 +4418,24 @@
       <c r="F42" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="19">
         <v>7.33</v>
       </c>
-      <c r="H42" s="24">
-        <v>607650</v>
-      </c>
-      <c r="I42">
+      <c r="H42" s="10">
+        <v>728389.33330000006</v>
+      </c>
+      <c r="I42" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B43" s="8">
+      <c r="B43" s="10">
         <v>5</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -4356,24 +4444,24 @@
       <c r="F43" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="19">
         <v>7.33</v>
       </c>
-      <c r="H43" s="24">
-        <v>607650</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="10">
+        <v>728389.33330000006</v>
+      </c>
+      <c r="I43" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B44" s="8">
+      <c r="B44" s="10">
         <v>8</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E44" s="10" t="s">
@@ -4382,13 +4470,13 @@
       <c r="F44" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="19">
         <v>7.22</v>
       </c>
-      <c r="H44" s="24">
-        <v>632000</v>
-      </c>
-      <c r="I44">
+      <c r="H44" s="20">
+        <v>679023</v>
+      </c>
+      <c r="I44" s="19">
         <v>14</v>
       </c>
       <c r="J44" s="7">
@@ -4396,13 +4484,13 @@
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B45" s="8">
+      <c r="B45" s="10">
         <v>9</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -4411,13 +4499,13 @@
       <c r="F45" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="19">
         <v>7.22</v>
       </c>
-      <c r="H45" s="24">
-        <v>632000</v>
-      </c>
-      <c r="I45">
+      <c r="H45" s="20">
+        <v>679023</v>
+      </c>
+      <c r="I45" s="19">
         <v>14</v>
       </c>
       <c r="J45" s="7">
@@ -4425,13 +4513,13 @@
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B46" s="8">
+      <c r="B46" s="10">
         <v>10</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -4440,13 +4528,13 @@
       <c r="F46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="19">
         <v>7.22</v>
       </c>
-      <c r="H46" s="24">
-        <v>632000</v>
-      </c>
-      <c r="I46">
+      <c r="H46" s="20">
+        <v>679023</v>
+      </c>
+      <c r="I46" s="19">
         <v>14</v>
       </c>
       <c r="J46" s="7">
@@ -4454,13 +4542,13 @@
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B47" s="8">
+      <c r="B47" s="10">
         <v>11</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -4469,24 +4557,24 @@
       <c r="F47" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="19">
         <v>7.86</v>
       </c>
-      <c r="H47" s="24">
-        <v>925440</v>
-      </c>
-      <c r="I47">
+      <c r="H47" s="10">
+        <v>1185478.764</v>
+      </c>
+      <c r="I47" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="B48" s="8">
+      <c r="B48" s="10">
         <v>12</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="10" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -4495,24 +4583,24 @@
       <c r="F48" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="19">
         <v>7.86</v>
       </c>
-      <c r="H48" s="24">
-        <v>763368.57142857136</v>
-      </c>
-      <c r="I48">
+      <c r="H48" s="10">
+        <v>937252.31689999998</v>
+      </c>
+      <c r="I48" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:108" x14ac:dyDescent="0.35">
-      <c r="B49" s="8">
+      <c r="B49" s="10">
         <v>13</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="10" t="s">
         <v>81</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -4521,150 +4609,150 @@
       <c r="F49" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="19">
         <v>7.86</v>
       </c>
-      <c r="H49" s="24">
-        <v>763368.57142857136</v>
-      </c>
-      <c r="I49">
+      <c r="H49" s="10">
+        <v>937252.31689999998</v>
+      </c>
+      <c r="I49" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:108" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
-      <c r="B50" s="16">
+      <c r="A50" s="12"/>
+      <c r="B50" s="17">
         <v>14</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="20">
-        <v>7.86</v>
-      </c>
-      <c r="H50" s="24">
-        <v>10000000</v>
-      </c>
-      <c r="I50" s="20">
-        <v>14</v>
-      </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
-      <c r="AJ50" s="20"/>
-      <c r="AK50" s="20"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="20"/>
-      <c r="AN50" s="20"/>
-      <c r="AO50" s="20"/>
-      <c r="AP50" s="20"/>
-      <c r="AQ50" s="20"/>
-      <c r="AR50" s="20"/>
-      <c r="AS50" s="20"/>
-      <c r="AT50" s="20"/>
-      <c r="AU50" s="20"/>
-      <c r="AV50" s="20"/>
-      <c r="AW50" s="20"/>
-      <c r="AX50" s="20"/>
-      <c r="AY50" s="20"/>
-      <c r="AZ50" s="20"/>
-      <c r="BA50" s="20"/>
-      <c r="BB50" s="20"/>
-      <c r="BC50" s="20"/>
-      <c r="BD50" s="20"/>
-      <c r="BE50" s="20"/>
-      <c r="BF50" s="20"/>
-      <c r="BG50" s="20"/>
-      <c r="BH50" s="20"/>
-      <c r="BI50" s="20"/>
-      <c r="BJ50" s="20"/>
-      <c r="BK50" s="20"/>
-      <c r="BL50" s="20"/>
-      <c r="BM50" s="20"/>
-      <c r="BN50" s="20"/>
-      <c r="BO50" s="20"/>
-      <c r="BP50" s="20"/>
-      <c r="BQ50" s="20"/>
-      <c r="BR50" s="20"/>
-      <c r="BS50" s="20"/>
-      <c r="BT50" s="20"/>
-      <c r="BU50" s="20"/>
-      <c r="BV50" s="20"/>
-      <c r="BW50" s="20"/>
-      <c r="BX50" s="20"/>
-      <c r="BY50" s="20"/>
-      <c r="BZ50" s="20"/>
-      <c r="CA50" s="20"/>
-      <c r="CB50" s="20"/>
-      <c r="CC50" s="20"/>
-      <c r="CD50" s="20"/>
-      <c r="CE50" s="20"/>
-      <c r="CF50" s="20"/>
-      <c r="CG50" s="20"/>
-      <c r="CH50" s="20"/>
-      <c r="CI50" s="20"/>
-      <c r="CJ50" s="20"/>
-      <c r="CK50" s="20"/>
-      <c r="CL50" s="20"/>
-      <c r="CM50" s="20"/>
-      <c r="CN50" s="20"/>
-      <c r="CO50" s="20"/>
-      <c r="CP50" s="20"/>
-      <c r="CQ50" s="20"/>
-      <c r="CR50" s="20"/>
-      <c r="CS50" s="20"/>
-      <c r="CT50" s="20"/>
-      <c r="CU50" s="20"/>
-      <c r="CV50" s="20"/>
-      <c r="CW50" s="20"/>
-      <c r="CX50" s="20"/>
-      <c r="CY50" s="20"/>
-      <c r="CZ50" s="20"/>
-      <c r="DA50" s="20"/>
-      <c r="DB50" s="20"/>
-      <c r="DC50" s="20"/>
-      <c r="DD50" s="20"/>
+      <c r="G50" s="21">
+        <v>100</v>
+      </c>
+      <c r="H50" s="22">
+        <v>100000000</v>
+      </c>
+      <c r="I50" s="21">
+        <v>100</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="12"/>
+      <c r="BD50" s="12"/>
+      <c r="BE50" s="12"/>
+      <c r="BF50" s="12"/>
+      <c r="BG50" s="12"/>
+      <c r="BH50" s="12"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="12"/>
+      <c r="BK50" s="12"/>
+      <c r="BL50" s="12"/>
+      <c r="BM50" s="12"/>
+      <c r="BN50" s="12"/>
+      <c r="BO50" s="12"/>
+      <c r="BP50" s="12"/>
+      <c r="BQ50" s="12"/>
+      <c r="BR50" s="12"/>
+      <c r="BS50" s="12"/>
+      <c r="BT50" s="12"/>
+      <c r="BU50" s="12"/>
+      <c r="BV50" s="12"/>
+      <c r="BW50" s="12"/>
+      <c r="BX50" s="12"/>
+      <c r="BY50" s="12"/>
+      <c r="BZ50" s="12"/>
+      <c r="CA50" s="12"/>
+      <c r="CB50" s="12"/>
+      <c r="CC50" s="12"/>
+      <c r="CD50" s="12"/>
+      <c r="CE50" s="12"/>
+      <c r="CF50" s="12"/>
+      <c r="CG50" s="12"/>
+      <c r="CH50" s="12"/>
+      <c r="CI50" s="12"/>
+      <c r="CJ50" s="12"/>
+      <c r="CK50" s="12"/>
+      <c r="CL50" s="12"/>
+      <c r="CM50" s="12"/>
+      <c r="CN50" s="12"/>
+      <c r="CO50" s="12"/>
+      <c r="CP50" s="12"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
+      <c r="CT50" s="12"/>
+      <c r="CU50" s="12"/>
+      <c r="CV50" s="12"/>
+      <c r="CW50" s="12"/>
+      <c r="CX50" s="12"/>
+      <c r="CY50" s="12"/>
+      <c r="CZ50" s="12"/>
+      <c r="DA50" s="12"/>
+      <c r="DB50" s="12"/>
+      <c r="DC50" s="12"/>
+      <c r="DD50" s="12"/>
     </row>
     <row r="51" spans="1:108" x14ac:dyDescent="0.35">
-      <c r="B51" s="8">
+      <c r="B51" s="10">
         <v>15</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -4673,24 +4761,24 @@
       <c r="F51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="23">
         <v>7.33</v>
       </c>
-      <c r="H51" s="24">
-        <v>632256</v>
-      </c>
-      <c r="I51">
+      <c r="H51" s="20">
+        <v>749023.37</v>
+      </c>
+      <c r="I51" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:108" x14ac:dyDescent="0.35">
-      <c r="B52" s="8">
+      <c r="B52" s="10">
         <v>18</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E52" s="10" t="s">
@@ -4699,24 +4787,24 @@
       <c r="F52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="19">
         <v>7.86</v>
       </c>
-      <c r="H52" s="24">
-        <v>552465</v>
-      </c>
-      <c r="I52">
+      <c r="H52" s="10">
+        <v>908461.85450000002</v>
+      </c>
+      <c r="I52" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:108" x14ac:dyDescent="0.35">
-      <c r="B53" s="8">
+      <c r="B53" s="10">
         <v>19</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -4725,13 +4813,13 @@
       <c r="F53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="19">
         <v>7.86</v>
       </c>
-      <c r="H53" s="24">
-        <v>959868.57</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="10">
+        <v>908461.85450000002</v>
+      </c>
+      <c r="I53" s="19">
         <v>14</v>
       </c>
     </row>
